--- a/biology/Neurosciences/Korbinian_Brodmann/Korbinian_Brodmann.xlsx
+++ b/biology/Neurosciences/Korbinian_Brodmann/Korbinian_Brodmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Korbinian Brodmann, né le 17 novembre 1868 à Liggersdorf dans le Hohenzollern, près de Constance dans l'actuel Bade-Wurtemberg et mort le 22 août 1918 à Munich, d'une pneumonie[1], est un neurologue et neurophysiologiste allemand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Korbinian Brodmann, né le 17 novembre 1868 à Liggersdorf dans le Hohenzollern, près de Constance dans l'actuel Bade-Wurtemberg et mort le 22 août 1918 à Munich, d'une pneumonie, est un neurologue et neurophysiologiste allemand.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie et travaux scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est étudiant en médecine successivement à Munich, Wurtzbourg, Berlin puis Fribourg-en-Brisgau où il obtient son habilitation à la pratique médicale en 1895.
-Il divise le cortex cérébral de l'homme en 52 aires différentes selon la cytoarchitectonie, c'est-à-dire la densité, la taille des neurones et le nombre de couches observées sur des coupes histologiques[2].
+Il divise le cortex cérébral de l'homme en 52 aires différentes selon la cytoarchitectonie, c'est-à-dire la densité, la taille des neurones et le nombre de couches observées sur des coupes histologiques.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de)Beiträge zur histologischen Lokalisation der Grosshirnrinde: Fünfte Mitteilung: Über den allgemeinen Bauplan des Cortex Pallii bei den Mammaliern und zwei homologe Rindenfelder im besonderen. Zugleich ein Beitrag zur Furchenlehre, JA Barth, 1906.
 (de)Beiträge zur histologischen Lokalisation der Grosshirnrinde, 3134
